--- a/final_result.xlsx
+++ b/final_result.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -378,6 +378,11 @@
           <t>bai1_b</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -396,6 +401,9 @@
       <c r="D2">
         <v>1</v>
       </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -412,6 +420,9 @@
         <v>0</v>
       </c>
       <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
         <v>0</v>
       </c>
     </row>
